--- a/individual_case_outputs/avey/27.xlsx
+++ b/individual_case_outputs/avey/27.xlsx
@@ -593,7 +593,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>chronic pancreatitis</t>
+          <t>cellular change in pancreas</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -699,7 +699,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>inflammatory bowel disease</t>
+          <t>irritable bowel syndrome</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -878,7 +878,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>inflammatory bowel disease</t>
+          <t>irritable bowel syndrome</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
